--- a/mehdi_work/log_experiments.xlsx
+++ b/mehdi_work/log_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhichem\Documents\00-LIVERPOOL_UNI\10-Programming\01-Project\gpss-research\mehdi_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA6556-5D3E-4785-830B-C3FBB7A5B73C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0653D-88F3-4691-976E-6418E5330949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{4DC199EC-BD62-43F4-8E7E-E005CCB1DC69}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Experiment number</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Best kernel initialisation.</t>
+  </si>
+  <si>
+    <t>3d_y574_4</t>
+  </si>
+  <si>
+    <t>Multi-dimensional does not work.</t>
+  </si>
+  <si>
+    <t>Change of CPMultiD MATLAB function.</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53AEF33-D5D2-4E85-BC80-D97C54C9F5AB}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +543,64 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mehdi_work/log_experiments.xlsx
+++ b/mehdi_work/log_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhichem\Documents\00-LIVERPOOL_UNI\10-Programming\01-Project\gpss-research\mehdi_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0653D-88F3-4691-976E-6418E5330949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35F1F7-B075-4C1F-87B6-E181EC16C761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{4DC199EC-BD62-43F4-8E7E-E005CCB1DC69}"/>
   </bookViews>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53AEF33-D5D2-4E85-BC80-D97C54C9F5AB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/mehdi_work/log_experiments.xlsx
+++ b/mehdi_work/log_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhichem\Documents\00-LIVERPOOL_UNI\10-Programming\01-Project\gpss-research\mehdi_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35F1F7-B075-4C1F-87B6-E181EC16C761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C5384-1C84-4C89-B602-A017D1ADEA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{4DC199EC-BD62-43F4-8E7E-E005CCB1DC69}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Multi-dimensional does not work.</t>
   </si>
   <si>
-    <t>Change of CPMultiD MATLAB function.</t>
+    <t>Change of CPMultiD MATLAB function. Does not work.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53AEF33-D5D2-4E85-BC80-D97C54C9F5AB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/mehdi_work/log_experiments.xlsx
+++ b/mehdi_work/log_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhichem\Documents\00-LIVERPOOL_UNI\10-Programming\01-Project\gpss-research\mehdi_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C5384-1C84-4C89-B602-A017D1ADEA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE5BDE-27EB-4AD4-B586-7FB79BF0D557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{4DC199EC-BD62-43F4-8E7E-E005CCB1DC69}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Experiment number</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Change of CPMultiD MATLAB function. Does not work.</t>
+  </si>
+  <si>
+    <t>+,*,Sub</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53AEF33-D5D2-4E85-BC80-D97C54C9F5AB}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +604,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
